--- a/static/documentos/reporte_0.xlsx
+++ b/static/documentos/reporte_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pytho\PycharmProjects\sion\static\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego.fonseca\PycharmProjects\uni2data\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4AC76-9985-4994-8303-76B4BB46C3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2954A-FDF2-4442-BDA7-9ACA14B2FB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
@@ -770,9 +770,6 @@
     </r>
   </si>
   <si>
-    <t>Código SION:</t>
-  </si>
-  <si>
     <t>Coordinador administrativo</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>Cargue:</t>
+  </si>
+  <si>
+    <t>Código:</t>
   </si>
 </sst>
 </file>
@@ -1757,6 +1757,111 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1814,12 +1919,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1862,107 +1961,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2250,7 +2250,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,227 +2274,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="83"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="96" t="s">
+      <c r="H4" s="88"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="118"/>
     </row>
     <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98" t="s">
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="93"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="125"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="89" t="s">
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="124"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="121"/>
+    </row>
+    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="88"/>
-    </row>
-    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="118"/>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="60"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="122" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" s="123"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="104"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="61"/>
     </row>
     <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76" t="s">
+      <c r="F10" s="70"/>
+      <c r="G10" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="113" t="s">
+      <c r="K10" s="70"/>
+      <c r="L10" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="111" t="s">
+      <c r="M10" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="112"/>
-      <c r="O10" s="107" t="s">
+      <c r="N10" s="69"/>
+      <c r="O10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="108"/>
+      <c r="P10" s="65"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="75"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="114"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="109"/>
-      <c r="P11" s="110"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H12" s="120" t="s">
+      <c r="H12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
       <c r="L12" s="26" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -2508,13 +2508,13 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -2539,12 +2539,12 @@
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="41"/>
-      <c r="M15" s="68" t="s">
+      <c r="M15" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="105" t="s">
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="62" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2560,10 +2560,10 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="48"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="106"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="63"/>
     </row>
     <row r="17" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" s="42"/>
@@ -2577,10 +2577,10 @@
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
       <c r="L17" s="48"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="106"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="63"/>
     </row>
     <row r="18" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="42"/>
@@ -2594,37 +2594,37 @@
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
       <c r="L18" s="48"/>
-      <c r="M18" s="70" t="s">
+      <c r="M18" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="66" t="s">
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="101" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="100" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="66"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="101"/>
     </row>
     <row r="20" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="51"/>
@@ -2638,10 +2638,10 @@
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
       <c r="L20" s="56"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="67"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2649,6 +2649,29 @@
     <protectedRange sqref="E4:I8 J4:O5 J7:O8" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="39">
+    <mergeCell ref="B1:D8"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="M18:O20"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:L19"/>
@@ -2665,29 +2688,6 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B1:D8"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="M18:O20"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4" xr:uid="{00000000-0002-0000-0000-000000000000}">
